--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/07,25/15,07,25 ПОКОМ Поляков/Заказ Полякова 15.07.25..xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/07,25/15,07,25 ПОКОМ Поляков/Заказ Полякова 15.07.25..xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\07,25\15,07,25 ПОКОМ Поляков\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F3A348-B5D6-40A4-8627-840AA42E1113}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE40709-B3DC-4FF5-A070-51F4D3E07CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Заказ" sheetId="102" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Заказ!$F$1:$F$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Заказ!$C$2:$I$377</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="713">
   <si>
     <t>Заказ</t>
   </si>
@@ -2174,13 +2174,16 @@
   </si>
   <si>
     <t>ЧЕБУПИЦЦА ГОРЯЧАЯ ШТУЧКА КУРОЧКА ПО ИТАЛ.О 250г 1\12, кг</t>
+  </si>
+  <si>
+    <t>Уменьшить на (кг)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2261,6 +2264,33 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2694,7 +2724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="2"/>
@@ -2980,6 +3010,21 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3282,7 +3327,7 @@
   <dimension ref="A1:AE393"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O96" sqref="O96"/>
+      <selection activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3295,7 +3340,8 @@
     <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="16" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="23" width="9.140625" style="2"/>
+    <col min="9" max="9" width="19.5703125" style="99" customWidth="1"/>
+    <col min="10" max="23" width="9.140625" style="2"/>
     <col min="24" max="25" width="9.140625" style="3"/>
     <col min="26" max="26" width="9.140625" style="2"/>
     <col min="27" max="31" width="9.140625" style="2" hidden="1" customWidth="1"/>
@@ -3306,7 +3352,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="37"/>
       <c r="D2" s="67" t="s">
         <v>647</v>
@@ -3319,7 +3365,9 @@
         <v>302</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="I2" s="101" t="s">
+        <v>712</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -3365,7 +3413,7 @@
         <v>7715</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="98"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -3553,7 +3601,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="I7" s="100"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -3779,7 +3827,7 @@
         <v>500</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="I12" s="100"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -3827,7 +3875,7 @@
         <v>2500</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -3875,7 +3923,7 @@
         <v>500</v>
       </c>
       <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -7382,7 +7430,9 @@
         <v>250</v>
       </c>
       <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
+      <c r="I84" s="102">
+        <v>-100</v>
+      </c>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="L84" s="9"/>
@@ -7435,7 +7485,9 @@
         <v>2500</v>
       </c>
       <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="102">
+        <v>-1000</v>
+      </c>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c r="L85" s="9"/>
@@ -8013,7 +8065,9 @@
         <v>450</v>
       </c>
       <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="I96" s="102">
+        <v>-200</v>
+      </c>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
@@ -8228,7 +8282,7 @@
         <v>100</v>
       </c>
       <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="100"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
@@ -8335,7 +8389,7 @@
         <v>50</v>
       </c>
       <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="I102" s="100"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c r="L102" s="9"/>
@@ -8439,7 +8493,9 @@
         <v>70</v>
       </c>
       <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="102">
+        <v>-70</v>
+      </c>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c r="L104" s="9"/>
@@ -8696,7 +8752,7 @@
         <v>100</v>
       </c>
       <c r="H109" s="9"/>
-      <c r="I109" s="9"/>
+      <c r="I109" s="100"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c r="L109" s="9"/>
@@ -8749,7 +8805,9 @@
         <v>400</v>
       </c>
       <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
+      <c r="I110" s="102">
+        <v>-100</v>
+      </c>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c r="L110" s="9"/>
@@ -9613,7 +9671,9 @@
         <v>150</v>
       </c>
       <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
+      <c r="I127" s="102">
+        <v>-80</v>
+      </c>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
@@ -11041,7 +11101,9 @@
         <v>45</v>
       </c>
       <c r="H155" s="9"/>
-      <c r="I155" s="9"/>
+      <c r="I155" s="102">
+        <v>-25</v>
+      </c>
       <c r="J155" s="9"/>
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
@@ -11545,7 +11607,7 @@
         <v>50</v>
       </c>
       <c r="H165" s="9"/>
-      <c r="I165" s="9"/>
+      <c r="I165" s="100"/>
       <c r="J165" s="9"/>
       <c r="K165" s="9"/>
       <c r="L165" s="9"/>
@@ -21830,49 +21892,81 @@
         <f>G340+G327+G321+G266+G181+G3</f>
         <v>7980</v>
       </c>
+      <c r="I377" s="2"/>
       <c r="AA377" s="25"/>
       <c r="AB377" s="25"/>
       <c r="AC377" s="25"/>
       <c r="AD377" s="25"/>
       <c r="AE377" s="25"/>
     </row>
-    <row r="378" spans="3:31" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="379" spans="3:31" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="380" spans="3:31" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="381" spans="3:31" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="382" spans="3:31" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="383" spans="3:31" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="384" spans="3:31" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="385" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="386" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="387" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="388" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="389" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="390" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="391" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="392" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="393" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="I378" s="2"/>
+    </row>
+    <row r="379" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="I379" s="2"/>
+    </row>
+    <row r="380" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="I380" s="2"/>
+    </row>
+    <row r="381" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="I381" s="2"/>
+    </row>
+    <row r="382" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="I382" s="2"/>
+    </row>
+    <row r="383" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="I383" s="2"/>
+    </row>
+    <row r="384" spans="3:31" x14ac:dyDescent="0.25">
+      <c r="I384" s="2"/>
+    </row>
+    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I385" s="2"/>
+    </row>
+    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I386" s="2"/>
+    </row>
+    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I387" s="2"/>
+    </row>
+    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I388" s="2"/>
+    </row>
+    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I389" s="2"/>
+    </row>
+    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I390" s="2"/>
+    </row>
+    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I391" s="2"/>
+    </row>
+    <row r="392" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I392" s="2"/>
+    </row>
+    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I393" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="F1:F393" xr:uid="{3B009145-C39A-40C9-ABA3-54B35824C289}">
-    <filterColumn colId="0">
+  <autoFilter ref="C2:I377" xr:uid="{F2CD1371-657D-48D5-9A60-10BB7403777D}">
+    <filterColumn colId="4">
       <filters>
         <filter val="100"/>
-        <filter val="124"/>
+        <filter val="115"/>
+        <filter val="15"/>
         <filter val="150"/>
-        <filter val="180"/>
+        <filter val="24"/>
         <filter val="250"/>
         <filter val="2500"/>
+        <filter val="31"/>
         <filter val="400"/>
+        <filter val="45"/>
         <filter val="450"/>
-        <filter val="460"/>
         <filter val="50"/>
         <filter val="500"/>
-        <filter val="60"/>
         <filter val="70"/>
-        <filter val="7770"/>
-        <filter val="8380"/>
-        <filter val="96"/>
-        <filter val="Заказ"/>
+        <filter val="7715"/>
+        <filter val="7980"/>
       </filters>
     </filterColumn>
   </autoFilter>
